--- a/MOptim/MOptim_Laba1.xlsx
+++ b/MOptim/MOptim_Laba1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4995" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4995"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>N</t>
   </si>
@@ -410,9 +410,6 @@
     <t>общ\на 2</t>
   </si>
   <si>
-    <t>затраты</t>
-  </si>
-  <si>
     <t>кол-во во 2</t>
   </si>
   <si>
@@ -435,6 +432,9 @@
   </si>
   <si>
     <t>П1+П2+П3+П4</t>
+  </si>
+  <si>
+    <t>Прибыль</t>
   </si>
 </sst>
 </file>
@@ -467,12 +467,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -747,24 +747,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,88 +882,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1439,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,665 +1583,665 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="A2" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="45">
+        <v>0</v>
+      </c>
+      <c r="C2" s="45">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="45">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="45">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="45">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="45">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="45">
         <v>6</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="45">
         <v>7</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="46">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="45">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="45">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="45">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="45">
         <v>7</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="45">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="45">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="H3" s="45">
+        <v>0</v>
+      </c>
+      <c r="I3" s="45">
+        <v>0</v>
+      </c>
+      <c r="J3" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="51">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="45">
+        <v>0</v>
+      </c>
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="45">
         <v>2</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="45">
         <v>3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="45">
         <v>4</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="45">
         <v>5</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="45">
         <v>6</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="45">
         <v>7</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="46">
         <v>8</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="47">
         <f>B3</f>
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="47">
         <f>IF(C3&gt;L7,C3,L7)</f>
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="47">
         <f>IF(D3&gt;L7,D3,L7)</f>
         <v>9</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="47">
         <f>IF(E3&gt;L7,E3,L7)</f>
         <v>7</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="47">
         <f>IF(F3&gt;L7,F3,L7)</f>
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="47">
         <f>IF(G3&gt;L7,G3,L7)</f>
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="47">
         <f>IF(H3&gt;L7,H3,L7)</f>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="47">
         <f>IF(I3&gt;L7,I3,L7)</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="48">
         <f>IF(J3&gt;L7,J3,L7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="2">
-        <f>B7-$B$4</f>
+      <c r="L7" s="23">
+        <f t="shared" ref="L7:L18" si="0">B7-$B$4</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="47">
         <f>$B$7+C7</f>
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="47">
         <f>IF($C$7+D7&gt;L8,$C$3+D7,L8)</f>
         <v>19</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="47">
         <f>IF($D$7+E7&gt;L8,$D$7+E7,L8)</f>
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="47">
         <f>IF($E$7+F7&gt;L8,$E$7+F7,L8)</f>
         <v>12</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="47">
         <f>IF($F$7+G7&gt;L8,$F$7+G7,L8)</f>
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="47">
         <f>IF($G$7+H7&gt;L8,$G$7+H7,L8)</f>
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="47">
         <f>IF($H$7+I7&gt;L8,$H$7+I7,L8)</f>
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="47">
         <f>IF($I$7+J7&gt;L8,$I$7+J7,L8)</f>
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="48">
         <f>IF($J$7+K7&gt;L8,$J$7+K7,L8)</f>
         <v>10</v>
       </c>
-      <c r="L8" s="2">
-        <f>B8-$B$4</f>
+      <c r="L8" s="23">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:B18" si="0">$B$7+C8</f>
+      <c r="B9" s="47">
+        <f t="shared" ref="B9:B18" si="1">$B$7+C8</f>
         <v>30</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C18" si="1">IF($C$7+D8&gt;L9,$C$3+D8,L9)</f>
+      <c r="C9" s="47">
+        <f t="shared" ref="C9:C18" si="2">IF($C$7+D8&gt;L9,$C$3+D8,L9)</f>
         <v>26</v>
       </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D18" si="2">IF($D$7+E8&gt;L9,$D$7+E8,L9)</f>
+      <c r="D9" s="47">
+        <f t="shared" ref="D9:D18" si="3">IF($D$7+E8&gt;L9,$D$7+E8,L9)</f>
         <v>21</v>
       </c>
-      <c r="E9">
-        <f t="shared" ref="E9:E18" si="3">IF($E$7+F8&gt;L9,$E$7+F8,L9)</f>
+      <c r="E9" s="47">
+        <f t="shared" ref="E9:E18" si="4">IF($E$7+F8&gt;L9,$E$7+F8,L9)</f>
         <v>19</v>
       </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F18" si="4">IF($F$7+G8&gt;L9,$F$7+G8,L9)</f>
+      <c r="F9" s="47">
+        <f t="shared" ref="F9:F18" si="5">IF($F$7+G8&gt;L9,$F$7+G8,L9)</f>
         <v>19</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G18" si="5">IF($G$7+H8&gt;L9,$G$7+H8,L9)</f>
+      <c r="G9" s="47">
+        <f t="shared" ref="G9:G18" si="6">IF($G$7+H8&gt;L9,$G$7+H8,L9)</f>
         <v>19</v>
       </c>
-      <c r="H9">
-        <f t="shared" ref="H9:H18" si="6">IF($H$7+I8&gt;L9,$H$7+I8,L9)</f>
+      <c r="H9" s="47">
+        <f t="shared" ref="H9:H18" si="7">IF($H$7+I8&gt;L9,$H$7+I8,L9)</f>
         <v>19</v>
       </c>
-      <c r="I9">
-        <f t="shared" ref="I9:I18" si="7">IF($I$7+J8&gt;L9,$I$7+J8,L9)</f>
+      <c r="I9" s="47">
+        <f t="shared" ref="I9:I18" si="8">IF($I$7+J8&gt;L9,$I$7+J8,L9)</f>
         <v>19</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J18" si="8">IF($J$7+K8&gt;L9,$J$7+K8,L9)</f>
+      <c r="J9" s="48">
+        <f t="shared" ref="J9:J18" si="9">IF($J$7+K8&gt;L9,$J$7+K8,L9)</f>
         <v>19</v>
       </c>
-      <c r="L9" s="2">
-        <f>B9-$B$4</f>
+      <c r="L9" s="23">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
+      <c r="B10" s="47">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
+      <c r="C10" s="47">
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
+      <c r="D10" s="47">
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>26</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="47">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="G10">
+      <c r="F10" s="47">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="47">
         <f t="shared" si="6"/>
         <v>26</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="47">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="J10">
+      <c r="I10" s="47">
         <f t="shared" si="8"/>
         <v>26</v>
       </c>
-      <c r="L10" s="2">
-        <f>B10-$B$4</f>
+      <c r="J10" s="48">
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
+      <c r="L10" s="23">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
+      <c r="B11" s="47">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
+      <c r="C11" s="47">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
+      <c r="D11" s="47">
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
+      <c r="E11" s="47">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="47">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="47">
         <f t="shared" si="6"/>
         <v>31</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="47">
         <f t="shared" si="7"/>
         <v>31</v>
       </c>
-      <c r="J11">
+      <c r="I11" s="47">
         <f t="shared" si="8"/>
         <v>31</v>
       </c>
-      <c r="L11" s="2">
-        <f>B11-$B$4</f>
+      <c r="J11" s="48">
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
+      <c r="L11" s="23">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
+      <c r="B12" s="47">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
+      <c r="C12" s="47">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
+      <c r="D12" s="47">
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="F12">
+      <c r="E12" s="47">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="47">
         <f t="shared" si="5"/>
         <v>38</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="47">
         <f t="shared" si="6"/>
         <v>38</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="47">
         <f t="shared" si="7"/>
         <v>38</v>
       </c>
-      <c r="J12">
+      <c r="I12" s="47">
         <f t="shared" si="8"/>
         <v>38</v>
       </c>
-      <c r="L12" s="2">
-        <f>B12-$B$4</f>
+      <c r="J12" s="48">
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
+      <c r="L12" s="23">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
+      <c r="B13" s="47">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
+      <c r="C13" s="47">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
+      <c r="D13" s="47">
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>45</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="47">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="47">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="47">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="47">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="J13">
+      <c r="I13" s="47">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="L13" s="2">
-        <f>B13-$B$4</f>
+      <c r="J13" s="48">
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
+      <c r="L13" s="23">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
+      <c r="B14" s="47">
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
+      <c r="C14" s="47">
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
+      <c r="D14" s="47">
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="3"/>
-        <v>52</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="47">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="G14">
+      <c r="F14" s="47">
         <f t="shared" si="5"/>
         <v>52</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="47">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
-      <c r="I14">
+      <c r="H14" s="47">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="J14">
+      <c r="I14" s="47">
         <f t="shared" si="8"/>
         <v>52</v>
       </c>
-      <c r="L14" s="2">
-        <f>B14-$B$4</f>
+      <c r="J14" s="48">
+        <f t="shared" si="9"/>
         <v>52</v>
       </c>
+      <c r="L14" s="23">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
+      <c r="B15" s="47">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
+      <c r="C15" s="47">
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
+      <c r="D15" s="47">
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="3"/>
+      <c r="E15" s="47">
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="4"/>
-        <v>57</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="47">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="47">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="I15">
+      <c r="H15" s="47">
         <f t="shared" si="7"/>
         <v>57</v>
       </c>
-      <c r="J15">
+      <c r="I15" s="47">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="L15" s="2">
-        <f>B15-$B$4</f>
+      <c r="J15" s="48">
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
+      <c r="L15" s="23">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
+      <c r="B16" s="47">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
+      <c r="C16" s="47">
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
+      <c r="D16" s="47">
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="47">
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
-      <c r="G16">
+      <c r="F16" s="47">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="47">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="47">
         <f t="shared" si="7"/>
         <v>64</v>
       </c>
-      <c r="J16">
+      <c r="I16" s="47">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="L16" s="2">
-        <f>B16-$B$4</f>
+      <c r="J16" s="48">
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
+      <c r="L16" s="23">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
+      <c r="B17" s="47">
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
+      <c r="C17" s="47">
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
+      <c r="D17" s="47">
+        <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>71</v>
-      </c>
-      <c r="F17">
+      <c r="E17" s="47">
         <f t="shared" si="4"/>
         <v>71</v>
       </c>
-      <c r="G17">
+      <c r="F17" s="47">
         <f t="shared" si="5"/>
         <v>71</v>
       </c>
-      <c r="H17">
+      <c r="G17" s="47">
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
-      <c r="I17">
+      <c r="H17" s="47">
         <f t="shared" si="7"/>
         <v>71</v>
       </c>
-      <c r="J17">
+      <c r="I17" s="47">
         <f t="shared" si="8"/>
         <v>71</v>
       </c>
-      <c r="L17" s="2">
-        <f>B17-$B$4</f>
+      <c r="J17" s="48">
+        <f t="shared" si="9"/>
         <v>71</v>
       </c>
+      <c r="L17" s="23">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
+      <c r="B18" s="1">
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
+      <c r="C18" s="1">
+        <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
+      <c r="D18" s="1">
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="1">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
-      <c r="G18">
+      <c r="F18" s="1">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="H18">
+      <c r="G18" s="1">
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="I18">
+      <c r="H18" s="1">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="J18">
+      <c r="I18" s="1">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="L18" s="2">
-        <f>B18-$B$4</f>
+      <c r="J18" s="50">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="L18" s="49">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
@@ -2241,21 +2375,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
     <col min="13" max="13" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+    </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -2266,890 +2415,909 @@
       <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="5">
         <v>50</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>9</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="5">
         <v>100</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="2">
         <v>15</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="2">
         <v>16</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>13</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="5">
         <v>150</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="2">
         <v>24</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="2">
         <v>22</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>20</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="4">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="5">
         <v>200</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="2">
         <v>33</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="2">
         <v>34</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>31</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="6">
         <v>250</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="15">
         <v>40</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="15">
         <v>39</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="15">
         <v>41</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="34"/>
+      <c r="D10" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="20">
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
         <v>50</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="10">
         <v>100</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="10">
         <v>150</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="10">
         <v>200</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="10">
         <v>250</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="K11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="22" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
-        <v>0</v>
-      </c>
-      <c r="B12" s="23">
-        <v>0</v>
-      </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="A12" s="16">
+        <v>0</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="14">
         <f>B12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="36">
-        <f>MIN($D12:$J12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="23">
+        <f>MAX($E12:$J12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f>INDEX($E$11:$J$11,1,MATCH(K12,E12:J12, ))</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="16">
         <v>50</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="12">
         <f>B4</f>
         <v>10</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>50</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="14">
         <f t="shared" ref="E13:E17" si="0">B13</f>
         <v>10</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="2">
         <f>C4</f>
         <v>9</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="36">
-        <f t="shared" ref="K13:K17" si="1">MIN($D13:$J13)</f>
-        <v>9</v>
-      </c>
-      <c r="L13" s="8">
-        <v>50</v>
+      <c r="G13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" ref="K13:K17" si="1">MAX($E13:$J13)</f>
+        <v>10</v>
+      </c>
+      <c r="L13" s="4">
+        <f>INDEX($E$11:$J$11,1,MATCH(K13,E13:J13, ))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="16">
         <v>100</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B14" s="12">
         <f t="shared" ref="B14:B17" si="2">B5</f>
         <v>15</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>100</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="2">
         <f>E13+$F$13</f>
         <v>19</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="2">
         <f>C5</f>
         <v>16</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="36">
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="23">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" ref="L14:L17" si="3">INDEX($E$11:$J$11,1,MATCH(K14,E14:J14, ))</f>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="16">
         <v>150</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="12">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>150</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F15" s="6">
-        <f t="shared" ref="F15:F17" si="3">E14+$F$13</f>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:F17" si="4">E14+$F$13</f>
         <v>24</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="2">
         <f>E13+$G$14</f>
         <v>26</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="2">
         <f>C6</f>
         <v>22</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="36">
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="23">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="L15" s="8">
-        <v>150</v>
+        <v>26</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="16">
         <v>200</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="12">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>200</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="14">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="F16" s="6">
-        <f t="shared" si="3"/>
+      <c r="F16" s="2">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="G16" s="6">
-        <f t="shared" ref="G16:G17" si="4">E14+$G$14</f>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:G17" si="5">E14+$G$14</f>
         <v>31</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="2">
         <f>$H$15+E13</f>
         <v>32</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="2">
         <f>C7</f>
         <v>34</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="36">
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="23">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="L16" s="8">
-        <v>100</v>
+        <v>34</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
+      <c r="A17" s="17">
         <v>250</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="13">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="6">
         <v>250</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="F17" s="26">
-        <f t="shared" si="3"/>
+      <c r="F17" s="15">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="G17" s="26">
-        <f t="shared" si="4"/>
+      <c r="G17" s="15">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="15">
         <f>$H$15+E14</f>
         <v>37</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="15">
         <f>$I$16+E13</f>
         <v>44</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="15">
         <f>C8</f>
         <v>39</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="24">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="L17" s="11">
-        <v>150</v>
+        <v>44</v>
+      </c>
+      <c r="L17" s="41">
+        <f t="shared" si="3"/>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="14" t="s">
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10">
+        <v>50</v>
+      </c>
+      <c r="G20" s="10">
+        <v>100</v>
+      </c>
+      <c r="H20" s="10">
+        <v>150</v>
+      </c>
+      <c r="I20" s="10">
+        <v>200</v>
+      </c>
+      <c r="J20" s="10">
+        <v>250</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="21">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="14">
+        <f>K12</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="23">
+        <f>MAX($E21:$J21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <f>INDEX($E$11:$J$11,1,MATCH(K21,E21:J21, ))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="5">
         <v>50</v>
       </c>
-      <c r="G20" s="21">
-        <v>100</v>
-      </c>
-      <c r="H20" s="21">
-        <v>150</v>
-      </c>
-      <c r="I20" s="21">
-        <v>200</v>
-      </c>
-      <c r="J20" s="21">
-        <v>250</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="9">
-        <v>0</v>
-      </c>
-      <c r="E21" s="25">
-        <f>K12</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="36">
-        <f>MIN($D21:$J21)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="9">
-        <v>50</v>
-      </c>
-      <c r="E22" s="25">
-        <f t="shared" ref="E22:E26" si="5">K13</f>
-        <v>9</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22" s="14">
+        <f t="shared" ref="E22:E26" si="6">K13</f>
+        <v>10</v>
+      </c>
+      <c r="F22" s="2">
         <f>D4</f>
         <v>7</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="36">
-        <f t="shared" ref="K22:K26" si="6">MIN($D22:$J22)</f>
-        <v>7</v>
-      </c>
-      <c r="L22" s="8">
-        <v>50</v>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" ref="K22:K26" si="7">MAX($E22:$J22)</f>
+        <v>10</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" ref="L22:L26" si="8">INDEX($E$11:$J$11,1,MATCH(K22,E22:J22, ))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="9">
+      <c r="D23" s="5">
         <v>100</v>
       </c>
-      <c r="E23" s="25">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="14">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="F23" s="2">
         <f>E22+$F$22</f>
-        <v>16</v>
-      </c>
-      <c r="G23" s="6">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2">
         <f>D5</f>
         <v>13</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="36">
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="5">
+        <v>150</v>
+      </c>
+      <c r="E24" s="14">
         <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="L23" s="39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="9">
-        <v>150</v>
-      </c>
-      <c r="E24" s="25">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" ref="F24:F26" si="7">E23+$F$22</f>
-        <v>22</v>
-      </c>
-      <c r="G24" s="6">
+        <v>26</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ref="F24:F26" si="9">E23+$F$22</f>
+        <v>26</v>
+      </c>
+      <c r="G24" s="2">
         <f>E22+$G$23</f>
-        <v>22</v>
-      </c>
-      <c r="H24" s="6">
+        <v>23</v>
+      </c>
+      <c r="H24" s="2">
         <f>D6</f>
         <v>20</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="5">
+        <v>200</v>
+      </c>
+      <c r="E25" s="14">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="9"/>
+        <v>33</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" ref="G25:G26" si="10">E23+$G$23</f>
+        <v>32</v>
+      </c>
+      <c r="H25" s="2">
+        <f>$H$24+E22</f>
         <v>30</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="36">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-      <c r="L24" s="8">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="9">
-        <v>200</v>
-      </c>
-      <c r="E25" s="25">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="F25" s="6">
-        <f t="shared" si="7"/>
-        <v>29</v>
-      </c>
-      <c r="G25" s="6">
-        <f t="shared" ref="G25:G26" si="8">E23+$G$23</f>
-        <v>28</v>
-      </c>
-      <c r="H25" s="6">
-        <f>$H$24+E22</f>
-        <v>29</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="I25" s="2">
         <f>D7</f>
         <v>31</v>
       </c>
-      <c r="J25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" s="36">
+      <c r="J25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="23">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="L25" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="6">
+        <v>250</v>
+      </c>
+      <c r="E26" s="21">
         <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-      <c r="L25" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="10">
-        <v>250</v>
-      </c>
-      <c r="E26" s="34">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="F26" s="26">
-        <f t="shared" si="7"/>
-        <v>38</v>
-      </c>
-      <c r="G26" s="26">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="H26" s="26">
+        <v>44</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="9"/>
+        <v>41</v>
+      </c>
+      <c r="G26" s="15">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+      <c r="H26" s="15">
         <f>$H$24+E23</f>
-        <v>35</v>
-      </c>
-      <c r="I26" s="26">
+        <v>39</v>
+      </c>
+      <c r="I26" s="15">
         <f>$I$25+E22</f>
-        <v>40</v>
-      </c>
-      <c r="J26" s="26">
+        <v>41</v>
+      </c>
+      <c r="J26" s="15">
         <f>D8</f>
         <v>41</v>
       </c>
-      <c r="K26" s="37">
-        <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="L26" s="11">
-        <v>100</v>
+      <c r="K26" s="24">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="L26" s="41">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="37">
+        <v>0</v>
+      </c>
+      <c r="F29" s="38">
+        <v>50</v>
+      </c>
+      <c r="G29" s="38">
+        <v>100</v>
+      </c>
+      <c r="H29" s="38">
+        <v>150</v>
+      </c>
+      <c r="I29" s="38">
+        <v>200</v>
+      </c>
+      <c r="J29" s="38">
+        <v>250</v>
+      </c>
+      <c r="K29" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="14" t="s">
+      <c r="L29" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="20">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="35">
+        <v>0</v>
+      </c>
+      <c r="E30" s="42">
+        <f>K21</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="39">
+        <f>MAX($E30:$J30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="40">
+        <f>INDEX($E$11:$J$11,1,MATCH(K30,E30:J30, ))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="35">
         <v>50</v>
       </c>
-      <c r="G29" s="21">
-        <v>100</v>
-      </c>
-      <c r="H29" s="21">
-        <v>150</v>
-      </c>
-      <c r="I29" s="21">
-        <v>200</v>
-      </c>
-      <c r="J29" s="21">
-        <v>250</v>
-      </c>
-      <c r="K29" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="9">
-        <v>0</v>
-      </c>
-      <c r="E30" s="25">
-        <f>K21</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K30" s="36">
-        <f>MIN($D30:$J30)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="9">
-        <v>50</v>
-      </c>
-      <c r="E31" s="25">
-        <f t="shared" ref="E31:E35" si="9">K22</f>
-        <v>7</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="E31" s="43">
+        <f t="shared" ref="E31:E35" si="11">K22</f>
+        <v>10</v>
+      </c>
+      <c r="F31" s="2">
         <f>E4</f>
         <v>8</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="36">
-        <f t="shared" ref="K31:K35" si="10">MIN($D31:$J31)</f>
-        <v>7</v>
-      </c>
-      <c r="L31" s="8">
+      <c r="G31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="23">
+        <f t="shared" ref="K31:K35" si="12">MAX($E31:$J31)</f>
+        <v>10</v>
+      </c>
+      <c r="L31" s="4">
+        <f t="shared" ref="L31:L35" si="13">INDEX($E$11:$J$11,1,MATCH(K31,E31:J31, ))</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="9">
+      <c r="D32" s="35">
         <v>100</v>
       </c>
-      <c r="E32" s="25">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="E32" s="43">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="F32" s="2">
         <f>E31+$F$31</f>
-        <v>15</v>
-      </c>
-      <c r="G32" s="6">
+        <v>18</v>
+      </c>
+      <c r="G32" s="2">
         <f>E5</f>
         <v>14</v>
       </c>
-      <c r="H32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K32" s="36">
-        <f t="shared" si="10"/>
-        <v>13</v>
-      </c>
-      <c r="L32" s="8">
+      <c r="H32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="23">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="L32" s="4">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D33" s="9">
+      <c r="D33" s="35">
         <v>150</v>
       </c>
-      <c r="E33" s="25">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" ref="F33:F34" si="11">E32+$F$31</f>
-        <v>21</v>
-      </c>
-      <c r="G33" s="6">
+      <c r="E33" s="43">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" ref="F33:F34" si="14">E32+$F$31</f>
+        <v>27</v>
+      </c>
+      <c r="G33" s="2">
         <f>E31+$G$32</f>
-        <v>21</v>
-      </c>
-      <c r="H33" s="6">
+        <v>24</v>
+      </c>
+      <c r="H33" s="2">
         <f>E6</f>
         <v>21</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" s="36">
-        <f t="shared" si="10"/>
-        <v>20</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0</v>
+      <c r="I33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="23">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="L33" s="4">
+        <f t="shared" si="13"/>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D34" s="9">
+      <c r="D34" s="35">
         <v>200</v>
       </c>
-      <c r="E34" s="25">
-        <f t="shared" si="9"/>
-        <v>28</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E34" s="43">
         <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
-      <c r="G34" s="6">
-        <f t="shared" ref="G34:G35" si="12">E32+$G$32</f>
-        <v>27</v>
-      </c>
-      <c r="H34" s="6">
+        <v>34</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="14"/>
+        <v>34</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" ref="G34:G35" si="15">E32+$G$32</f>
+        <v>33</v>
+      </c>
+      <c r="H34" s="2">
         <f>$H$33+E31</f>
-        <v>28</v>
-      </c>
-      <c r="I34" s="6">
+        <v>31</v>
+      </c>
+      <c r="I34" s="2">
         <f>E7</f>
         <v>32</v>
       </c>
-      <c r="J34" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K34" s="36">
-        <f t="shared" si="10"/>
-        <v>27</v>
-      </c>
-      <c r="L34" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D35" s="10">
-        <v>250</v>
-      </c>
-      <c r="E35" s="34">
-        <f t="shared" si="9"/>
-        <v>35</v>
-      </c>
-      <c r="F35" s="26">
-        <f>E34+$F$31</f>
-        <v>36</v>
-      </c>
-      <c r="G35" s="26">
+      <c r="J34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="23">
         <f t="shared" si="12"/>
         <v>34</v>
       </c>
-      <c r="H35" s="26">
+      <c r="L34" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="36">
+        <v>250</v>
+      </c>
+      <c r="E35" s="44">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="F35" s="15">
+        <f>E34+$F$31</f>
+        <v>42</v>
+      </c>
+      <c r="G35" s="15">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="H35" s="15">
         <f>$H$33+E32</f>
-        <v>34</v>
-      </c>
-      <c r="I35" s="26">
+        <v>40</v>
+      </c>
+      <c r="I35" s="15">
         <f>$I$34+E31</f>
-        <v>39</v>
-      </c>
-      <c r="J35" s="26">
+        <v>42</v>
+      </c>
+      <c r="J35" s="15">
         <f>E8</f>
         <v>40</v>
       </c>
-      <c r="K35" s="37">
-        <f t="shared" si="10"/>
-        <v>34</v>
-      </c>
-      <c r="L35" s="38">
-        <v>150</v>
+      <c r="K35" s="24">
+        <f t="shared" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="L35" s="41">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="D28:L28"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E2"/>
